--- a/config_11.17/act_035_jhs_config.xlsx
+++ b/config_11.17/act_035_jhs_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\客户端用表\聚划算\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\客户端用表\LUA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -464,52 +464,53 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10363,10364,10365,</t>
+    <t>ty_icon_jb_18y</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_30y</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_198y</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_2498y</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_998y</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_498y</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_98y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10366,10367,10368,</t>
+    <t>10381,10383,10382,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10369,10370,10371,</t>
-  </si>
-  <si>
-    <t>10378,10379,10380,</t>
+    <t>10378,10380,10379,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10375,10376,10377,</t>
+    <t>10375,10377,10376,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10372,10373,10374,</t>
+    <t>10372,10374,10373,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10381,10382,10383,</t>
+    <t>10369,10371,10370,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ty_icon_jb_18y</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_30y</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_198y</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_2498y</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_998y</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_498y</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_98y</t>
+    <t>10366,10368,10367,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10363,10365,10364,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -912,7 +913,7 @@
         <v>2498</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
@@ -924,7 +925,7 @@
         <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -935,7 +936,7 @@
         <v>998</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
@@ -947,7 +948,7 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -958,7 +959,7 @@
         <v>498</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -970,7 +971,7 @@
         <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -981,7 +982,7 @@
         <v>198</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>16</v>
@@ -993,7 +994,7 @@
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1004,7 +1005,7 @@
         <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
@@ -1016,7 +1017,7 @@
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1027,7 +1028,7 @@
         <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -1039,7 +1040,7 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1050,7 +1051,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -1062,7 +1063,7 @@
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/config_11.17/act_035_jhs_config.xlsx
+++ b/config_11.17/act_035_jhs_config.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\客户端用表\LUA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="config" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,24 +47,78 @@
     <t>image|图片</t>
   </si>
   <si>
-    <t>80万,2.4万,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>80万,4.8万,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8万,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>380万,11万,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
+    <t>10381,10383,10382,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10378,10380,10379,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10375,10377,10376,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10372,10374,10373,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10369,10371,10370,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10366,10368,10367,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10363,10365,10364,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_2498y,ty_icon_jb_2498y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_998y,ty_icon_jb_998y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_498y,ty_icon_jb_498y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_198y,ty_icon_jb_198y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_98y,ty_icon_jb_98y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_30y,ty_icon_jb_30y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_18y,ty_icon_jb_18y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"24980万","749万",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"24980万","1498.8万",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
     </r>
     <r>
       <rPr>
@@ -73,18 +127,52 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>80</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万,</t>
+      <t>249.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
     </r>
     <r>
       <rPr>
@@ -93,6 +181,530 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>99.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>49</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.8万",</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>19.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9.8万",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"0.8万",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万","299万",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>99</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80万","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>598.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4980</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>298.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80万","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>118</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.8万",</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>980万","58.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>380</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>22</t>
     </r>
     <r>
@@ -104,421 +716,40 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.8万,</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万,</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>980万,29万,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>980万,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>58.8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万,</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.8万,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1980万,59万,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>80万,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>118</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.8万,</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万,</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4980万,149万,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>980</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>298.8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万,</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.8万,</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9980万,299万,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>80万,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>598.8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万,</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万,</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24980万,749万,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4980</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1498.8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万,</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>49.8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万,</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_18y</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_30y</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_198y</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_2498y</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_998y</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_498y</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_98y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10381,10383,10382,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10378,10380,10379,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10375,10377,10376,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10372,10374,10373,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10369,10371,10370,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10366,10368,10367,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10363,10365,10364,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>.8万",</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"80万","4.8万",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万","149万",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万","59万",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万","29万",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"380万","11万",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"80万","2.4万",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,6 +775,26 @@
       <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -868,7 +1119,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -876,10 +1127,10 @@
     <col min="1" max="1" width="10.75" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="23.125" customWidth="1"/>
-    <col min="4" max="4" width="19.875" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="22.25" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -905,7 +1156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -913,22 +1164,22 @@
         <v>2498</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -936,22 +1187,22 @@
         <v>998</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -959,22 +1210,22 @@
         <v>498</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -982,22 +1233,22 @@
         <v>198</v>
       </c>
       <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1005,22 +1256,22 @@
         <v>98</v>
       </c>
       <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1028,19 +1279,19 @@
         <v>38</v>
       </c>
       <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1051,19 +1302,19 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
         <v>41</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/config_11.17/act_035_jhs_config.xlsx
+++ b/config_11.17/act_035_jhs_config.xlsx
@@ -75,34 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ty_icon_jb_2498y,ty_icon_jb_2498y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_998y,ty_icon_jb_998y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_498y,ty_icon_jb_498y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_198y,ty_icon_jb_198y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_98y,ty_icon_jb_98y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_30y,ty_icon_jb_30y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_18y,ty_icon_jb_18y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"24980万","749万",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -743,6 +715,28 @@
   <si>
     <t>"80万","2.4万",</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“ty_icon_jb_2498y”，“ty_icon_jb_2498y”，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“ty_icon_jb_998y”，“ty_icon_jb_998y”，</t>
+  </si>
+  <si>
+    <t>“ty_icon_jb_498y”，“ty_icon_jb_498y”，</t>
+  </si>
+  <si>
+    <t>“ty_icon_jb_198y”，“ty_icon_jb_198y”，</t>
+  </si>
+  <si>
+    <t>“ty_icon_jb_98y”，“ty_icon_jb_98y”，</t>
+  </si>
+  <si>
+    <t>“ty_icon_jb_30y”，“ty_icon_jb_30y”，</t>
+  </si>
+  <si>
+    <t>“ty_icon_jb_18y”，“ty_icon_jb_18y”，</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1113,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1130,7 +1124,7 @@
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="22.25" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="29.625" customWidth="1"/>
+    <col min="7" max="7" width="32.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1167,16 +1161,16 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -1190,16 +1184,16 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -1213,16 +1207,16 @@
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>37</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -1236,16 +1230,16 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
         <v>38</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -1259,16 +1253,16 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
         <v>39</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -1282,16 +1276,16 @@
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
         <v>40</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1305,16 +1299,16 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
         <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
